--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -244,10 +244,16 @@
     <t xml:space="preserve"> andrew department </t>
   </si>
   <si>
-    <t>ST 07 Esc 06 LP</t>
-  </si>
-  <si>
     <t>ben2 ben02</t>
+  </si>
+  <si>
+    <t>ADST07Esc06T1</t>
+  </si>
+  <si>
+    <t>D1ST04V1</t>
+  </si>
+  <si>
+    <t>D1ST04V2</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,7 +751,7 @@
         <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -765,7 +771,7 @@
         <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -841,7 +847,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
@@ -911,7 +917,7 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>D1ST04V2</t>
+  </si>
+  <si>
+    <t>D1ST05V1</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -864,7 +867,7 @@
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21270" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>D1ST05V1</t>
+  </si>
+  <si>
+    <t>St2R1</t>
+  </si>
+  <si>
+    <t>ADST07R2</t>
   </si>
 </sst>
 </file>
@@ -613,7 +619,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -928,6 +934,15 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7">

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21270" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:E35"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -263,12 +263,61 @@
   </si>
   <si>
     <t>ADST07R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewTemplate </t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_07.07.2025_102325</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_07.07.2025_110813</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_07.07.2025_111159</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_07.07.2025_111737</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_07.07.2025_112728</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_07.07.2025_112940</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_07.07.2025_114408</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_07.07.2025_114859</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_08.07.2025_072333</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_09.07.2025_071240</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_09.07.2025_150001</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_10.07.2025_074318</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_11.07.2025_071906</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_14.07.2025_073559</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_15.07.2025_085127</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -619,121 +668,121 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.7109375"/>
+    <col min="2" max="2" customWidth="true" width="49.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="46.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="5" max="5" customWidth="true" width="38.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="47.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>123456</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>123456</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -741,96 +790,96 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>21</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -838,13 +887,13 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -852,41 +901,41 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>55</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -894,27 +943,27 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -922,34 +971,33 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>72</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>48</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="21">
+      <c r="B21" t="s" s="0">
+        <v>97</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="2"/>
@@ -975,7 +1023,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>37</v>
       </c>
       <c r="B27" s="3">

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -265,52 +265,64 @@
     <t>ADST07R2</t>
   </si>
   <si>
-    <t xml:space="preserve">NewTemplate </t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_07.07.2025_102325</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_07.07.2025_110813</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_07.07.2025_111159</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_07.07.2025_111737</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_07.07.2025_112728</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_07.07.2025_112940</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_07.07.2025_114408</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_07.07.2025_114859</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_08.07.2025_072333</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_09.07.2025_071240</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_09.07.2025_150001</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_10.07.2025_074318</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_11.07.2025_071906</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_14.07.2025_073559</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_15.07.2025_085127</t>
+    <t>BG_AT by Atrribute_16.07.2025_123454</t>
+  </si>
+  <si>
+    <t>NewTemplate</t>
+  </si>
+  <si>
+    <t>NewResource</t>
+  </si>
+  <si>
+    <t>BG_Resource_16.07.2025_141105</t>
+  </si>
+  <si>
+    <t>BG_Resource_16.07.2025_142851</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_16.07.2025_143911</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_16.07.2025_144209</t>
+  </si>
+  <si>
+    <t>BG_Resource_16.07.2025_144209</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_17.07.2025_070733</t>
+  </si>
+  <si>
+    <t>BG_Resource_17.07.2025_070733</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_18.07.2025_072019</t>
+  </si>
+  <si>
+    <t>BG_Resource_18.07.2025_072019</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_21.07.2025_075428</t>
+  </si>
+  <si>
+    <t>BG_Resource_21.07.2025_075428</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_22.07.2025_072337</t>
+  </si>
+  <si>
+    <t>BG_Resource_22.07.2025_072337</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_23.07.2025_074229</t>
+  </si>
+  <si>
+    <t>BG_Resource_23.07.2025_074229</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_25.07.2025_080014</t>
+  </si>
+  <si>
+    <t>BG_Resource_25.07.2025_080014</t>
   </si>
 </sst>
 </file>
@@ -668,7 +680,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -996,14 +1008,13 @@
     </row>
     <row r="21">
       <c r="B21" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="0">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="2"/>

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17970" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -115,9 +115,6 @@
     <t>Qwerty@123</t>
   </si>
   <si>
-    <t>bhupesh+DevMRuser3@atinatechnology.in</t>
-  </si>
-  <si>
     <t>Live branch-with department</t>
   </si>
   <si>
@@ -265,7 +262,16 @@
     <t>ADST07R2</t>
   </si>
   <si>
-    <t>BG_AT by Atrribute_16.07.2025_123454</t>
+    <t>BG_AT by Atrribute_03.10.2025_074315</t>
+  </si>
+  <si>
+    <t>BG_Resource_03.10.2025_074315</t>
+  </si>
+  <si>
+    <t>Bhupesh Live02</t>
+  </si>
+  <si>
+    <t>st01FF2</t>
   </si>
   <si>
     <t>NewTemplate</t>
@@ -274,55 +280,109 @@
     <t>NewResource</t>
   </si>
   <si>
-    <t>BG_Resource_16.07.2025_141105</t>
-  </si>
-  <si>
-    <t>BG_Resource_16.07.2025_142851</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_16.07.2025_143911</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_16.07.2025_144209</t>
-  </si>
-  <si>
-    <t>BG_Resource_16.07.2025_144209</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_17.07.2025_070733</t>
-  </si>
-  <si>
-    <t>BG_Resource_17.07.2025_070733</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_18.07.2025_072019</t>
-  </si>
-  <si>
-    <t>BG_Resource_18.07.2025_072019</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_21.07.2025_075428</t>
-  </si>
-  <si>
-    <t>BG_Resource_21.07.2025_075428</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_22.07.2025_072337</t>
-  </si>
-  <si>
-    <t>BG_Resource_22.07.2025_072337</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_23.07.2025_074229</t>
-  </si>
-  <si>
-    <t>BG_Resource_23.07.2025_074229</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_25.07.2025_080014</t>
-  </si>
-  <si>
-    <t>BG_Resource_25.07.2025_080014</t>
+    <t>ADST06V3</t>
+  </si>
+  <si>
+    <t>St1V3</t>
+  </si>
+  <si>
+    <t>NewResourceEsc</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_03.10.2025_151940</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_03.10.2025_152654</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_03.10.2025_153331</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_04.10.2025_102009</t>
+  </si>
+  <si>
+    <t>BG_Resource_04.10.2025_102009</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_04.10.2025_102009</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_04.10.2025_110527</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_04.10.2025_120025</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_04.10.2025_122742</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_08.10.2025_072527</t>
+  </si>
+  <si>
+    <t>BG_Resource_08.10.2025_072527</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_08.10.2025_075521</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_10.10.2025_081726</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_10.10.2025_081726</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_10.10.2025_085907</t>
+  </si>
+  <si>
+    <t>BG_Resource_10.10.2025_085907</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_10.10.2025_085907</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_13.10.2025_071856</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_13.10.2025_071856</t>
+  </si>
+  <si>
+    <t>BG_Resource_13.10.2025_075443</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_22.10.2025_080123</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_22.10.2025_080123</t>
+  </si>
+  <si>
+    <t>BG_Resource_22.10.2025_080123</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_23.10.2025_070525</t>
+  </si>
+  <si>
+    <t>BG_Resource_23.10.2025_070525</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_23.10.2025_070525</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_24.10.2025_071529</t>
+  </si>
+  <si>
+    <t>BG_Resource_24.10.2025_071529</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_24.10.2025_071529</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_28.10.2025_060813</t>
+  </si>
+  <si>
+    <t>BG_Resource_28.10.2025_060813</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_28.10.2025_060813</t>
   </si>
 </sst>
 </file>
@@ -680,7 +740,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -695,19 +755,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="E1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -741,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -766,10 +826,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>73</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>74</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>17</v>
@@ -795,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -803,10 +863,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>21</v>
@@ -818,16 +878,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>19</v>
@@ -838,16 +898,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>20</v>
@@ -855,10 +915,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>24</v>
@@ -872,13 +932,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>45</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>22</v>
@@ -886,13 +946,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>47</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -900,13 +960,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>30</v>
@@ -914,13 +974,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>24</v>
@@ -928,13 +988,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>25</v>
@@ -942,13 +1002,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>55</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>26</v>
@@ -956,13 +1016,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>56</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>57</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>27</v>
@@ -970,13 +1030,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>58</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>28</v>
@@ -984,58 +1044,68 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>81</v>
-      </c>
       <c r="C20" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21">
       <c r="B21" t="s" s="0">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="0">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="2"/>
+      <c r="A23" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>83</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="2"/>
+      <c r="A24" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>87</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="D25" s="2" t="s">
-        <v>32</v>
+    <row r="25">
+      <c r="B25" t="s" s="0">
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -383,6 +383,24 @@
   </si>
   <si>
     <t>BG_ResourceEsc_28.10.2025_060813</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_29.10.2025_085441</t>
+  </si>
+  <si>
+    <t>BG_Resource_29.10.2025_085441</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_29.10.2025_085441</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_29.10.2025_100708</t>
+  </si>
+  <si>
+    <t>BG_Resource_29.10.2025_100708</t>
+  </si>
+  <si>
+    <t>BG_ResourceEsc_29.10.2025_100708</t>
   </si>
 </sst>
 </file>
@@ -1068,12 +1086,12 @@
     </row>
     <row r="21">
       <c r="B21" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1100,7 +1118,7 @@
     </row>
     <row r="25">
       <c r="B25" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17970" windowHeight="11100"/>
+    <workbookView xWindow="10830" yWindow="1530" windowWidth="17970" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -127,9 +127,6 @@
     <t>Testing Branch -with out department</t>
   </si>
   <si>
-    <t xml:space="preserve">branch Value </t>
-  </si>
-  <si>
     <t>23917-IN-robert-ff1-1</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>deptN</t>
   </si>
   <si>
-    <t xml:space="preserve"> andrew department </t>
-  </si>
-  <si>
     <t>ben2 ben02</t>
   </si>
   <si>
@@ -262,145 +256,127 @@
     <t>ADST07R2</t>
   </si>
   <si>
-    <t>BG_AT by Atrribute_03.10.2025_074315</t>
-  </si>
-  <si>
-    <t>BG_Resource_03.10.2025_074315</t>
-  </si>
-  <si>
     <t>Bhupesh Live02</t>
   </si>
   <si>
     <t>st01FF2</t>
   </si>
   <si>
+    <t>ADST06V3</t>
+  </si>
+  <si>
+    <t>St1V3</t>
+  </si>
+  <si>
+    <t>St01M1</t>
+  </si>
+  <si>
+    <t>D1st04m1</t>
+  </si>
+  <si>
+    <t>St01M2</t>
+  </si>
+  <si>
+    <t>D1st04m2</t>
+  </si>
+  <si>
+    <t>ADST06M1</t>
+  </si>
+  <si>
+    <t>ADST06M2</t>
+  </si>
+  <si>
+    <t>St02M1</t>
+  </si>
+  <si>
+    <t>ADSt07M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andrew department </t>
+  </si>
+  <si>
     <t>NewTemplate</t>
   </si>
   <si>
-    <t>NewResource</t>
-  </si>
-  <si>
-    <t>ADST06V3</t>
-  </si>
-  <si>
-    <t>St1V3</t>
-  </si>
-  <si>
-    <t>NewResourceEsc</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_03.10.2025_151940</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_03.10.2025_152654</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_03.10.2025_153331</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_04.10.2025_102009</t>
-  </si>
-  <si>
-    <t>BG_Resource_04.10.2025_102009</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_04.10.2025_102009</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_04.10.2025_110527</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_04.10.2025_120025</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_04.10.2025_122742</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_08.10.2025_072527</t>
-  </si>
-  <si>
-    <t>BG_Resource_08.10.2025_072527</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_08.10.2025_075521</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_10.10.2025_081726</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_10.10.2025_081726</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_10.10.2025_085907</t>
-  </si>
-  <si>
-    <t>BG_Resource_10.10.2025_085907</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_10.10.2025_085907</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_13.10.2025_071856</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_13.10.2025_071856</t>
-  </si>
-  <si>
-    <t>BG_Resource_13.10.2025_075443</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_22.10.2025_080123</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_22.10.2025_080123</t>
-  </si>
-  <si>
-    <t>BG_Resource_22.10.2025_080123</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_23.10.2025_070525</t>
-  </si>
-  <si>
-    <t>BG_Resource_23.10.2025_070525</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_23.10.2025_070525</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_24.10.2025_071529</t>
-  </si>
-  <si>
-    <t>BG_Resource_24.10.2025_071529</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_24.10.2025_071529</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_28.10.2025_060813</t>
-  </si>
-  <si>
-    <t>BG_Resource_28.10.2025_060813</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_28.10.2025_060813</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_29.10.2025_085441</t>
-  </si>
-  <si>
-    <t>BG_Resource_29.10.2025_085441</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_29.10.2025_085441</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_29.10.2025_100708</t>
-  </si>
-  <si>
-    <t>BG_Resource_29.10.2025_100708</t>
-  </si>
-  <si>
-    <t>BG_ResourceEsc_29.10.2025_100708</t>
+    <t>BG-manual alarm by attribute for extend-29.01.2026_055614</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_29.01.2026_055614</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_30.01.2026_063219</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_29.01.2026_081537</t>
+  </si>
+  <si>
+    <t>BG_Resource_29.01.2026_084149</t>
+  </si>
+  <si>
+    <t>ManualAlarmNameForChat</t>
+  </si>
+  <si>
+    <t>oldEscTemplateSt02ToSt01</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_29.01.2026_140742</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_29.01.2026_142938</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_29.01.2026_143414</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-30.01.2026_060705</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_30.01.2026_060705</t>
+  </si>
+  <si>
+    <t>BG_Resource_30.01.2026_060705</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_30.01.2026_060705</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_31.01.2026_060705</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_30.01.2026_092745</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-02.02.2026_063427</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_02.02.2026_063427</t>
+  </si>
+  <si>
+    <t>BG_Resource_02.02.2026_063427</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_02.02.2026_063427</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_03.02.2026_063427</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-03.02.2026_062339</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_03.02.2026_062339</t>
+  </si>
+  <si>
+    <t>BG_Resource_03.02.2026_062339</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_03.02.2026_062339</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_04.02.2026_062339</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_04.02.2026_084400</t>
   </si>
 </sst>
 </file>
@@ -408,7 +384,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +403,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,13 +442,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -755,16 +746,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="20.7109375"/>
-    <col min="2" max="2" customWidth="true" width="49.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="69.5703125"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="46.0"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="52.140625"/>
     <col min="5" max="5" customWidth="true" width="38.7109375"/>
@@ -782,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s" s="0">
         <v>35</v>
@@ -819,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -844,10 +835,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>17</v>
@@ -873,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -881,10 +872,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>21</v>
@@ -896,16 +887,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>19</v>
@@ -916,16 +907,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>20</v>
@@ -933,10 +924,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>24</v>
@@ -950,13 +941,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>43</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>44</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>22</v>
@@ -964,13 +955,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -978,13 +969,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>30</v>
@@ -992,13 +983,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>24</v>
@@ -1006,13 +997,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>25</v>
@@ -1020,13 +1011,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>26</v>
@@ -1034,13 +1025,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>55</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>56</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>27</v>
@@ -1048,13 +1039,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>57</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>28</v>
@@ -1062,44 +1053,44 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21">
       <c r="B21" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="0">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1107,10 +1098,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s" s="0">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1118,22 +1109,31 @@
     </row>
     <row r="25">
       <c r="B25" t="s" s="0">
-        <v>127</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3">
         <v>1.5</v>
       </c>
@@ -1142,6 +1142,32 @@
       </c>
       <c r="G27" s="3">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -377,6 +377,51 @@
   </si>
   <si>
     <t>Bg_1 Day Information-Event by Fire fighter (two Station)_04.02.2026_084400</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-03.02.2026_133325</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_03.02.2026_133325</t>
+  </si>
+  <si>
+    <t>BG_Resource_03.02.2026_133325</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_03.02.2026_133325</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_04.02.2026_133325</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-04.02.2026_063816</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_04.02.2026_063816</t>
+  </si>
+  <si>
+    <t>BG_Resource_04.02.2026_063816</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_04.02.2026_063816</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_05.02.2026_063816</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-04.02.2026_120321</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-04.02.2026_122609</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_04.02.2026_122609</t>
+  </si>
+  <si>
+    <t>BG_Resource_04.02.2026_122609</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_04.02.2026_122609</t>
   </si>
 </sst>
 </file>
@@ -1077,12 +1122,12 @@
     </row>
     <row r="21">
       <c r="B21" t="s" s="0">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="0">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1109,7 +1154,7 @@
     </row>
     <row r="25">
       <c r="B25" t="s" s="0">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1154,12 +1199,12 @@
     </row>
     <row r="29">
       <c r="B29" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s" s="0">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:7">

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="1530" windowWidth="17970" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="28425" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -298,120 +298,15 @@
     <t>NewTemplate</t>
   </si>
   <si>
-    <t>BG-manual alarm by attribute for extend-29.01.2026_055614</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_29.01.2026_055614</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_30.01.2026_063219</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_29.01.2026_081537</t>
-  </si>
-  <si>
-    <t>BG_Resource_29.01.2026_084149</t>
-  </si>
-  <si>
     <t>ManualAlarmNameForChat</t>
   </si>
   <si>
     <t>oldEscTemplateSt02ToSt01</t>
   </si>
   <si>
-    <t>BG_AT by Atrribute_29.01.2026_140742</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_29.01.2026_142938</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_29.01.2026_143414</t>
-  </si>
-  <si>
-    <t>BG-MA by attribute for extend-30.01.2026_060705</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_30.01.2026_060705</t>
-  </si>
-  <si>
-    <t>BG_Resource_30.01.2026_060705</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_30.01.2026_060705</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_31.01.2026_060705</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_30.01.2026_092745</t>
-  </si>
-  <si>
-    <t>BG-MA by attribute for extend-02.02.2026_063427</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_02.02.2026_063427</t>
-  </si>
-  <si>
-    <t>BG_Resource_02.02.2026_063427</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_02.02.2026_063427</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_03.02.2026_063427</t>
-  </si>
-  <si>
-    <t>BG-MA by attribute for extend-03.02.2026_062339</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_03.02.2026_062339</t>
-  </si>
-  <si>
-    <t>BG_Resource_03.02.2026_062339</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_03.02.2026_062339</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_04.02.2026_062339</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_04.02.2026_084400</t>
-  </si>
-  <si>
-    <t>BG-MA by attribute for extend-03.02.2026_133325</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_03.02.2026_133325</t>
-  </si>
-  <si>
-    <t>BG_Resource_03.02.2026_133325</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_03.02.2026_133325</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_04.02.2026_133325</t>
-  </si>
-  <si>
-    <t>BG-MA by attribute for extend-04.02.2026_063816</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_04.02.2026_063816</t>
-  </si>
-  <si>
-    <t>BG_Resource_04.02.2026_063816</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_04.02.2026_063816</t>
-  </si>
-  <si>
     <t>Bg_1 Day Information-Event by Fire fighter (two Station)_05.02.2026_063816</t>
   </si>
   <si>
-    <t>BG-MA by attribute for extend-04.02.2026_120321</t>
-  </si>
-  <si>
     <t>BG-MA by attribute for extend-04.02.2026_122609</t>
   </si>
   <si>
@@ -422,14 +317,22 @@
   </si>
   <si>
     <t>BG_Escaltion Resource_04.02.2026_122609</t>
+  </si>
+  <si>
+    <t>NewResource</t>
+  </si>
+  <si>
+    <t>NewResourceEsc</t>
+  </si>
+  <si>
+    <t>InfoEventNameForChat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,19 +351,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000C0"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -487,15 +377,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -794,121 +682,121 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="69.5703125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="46.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="52.140625"/>
-    <col min="5" max="5" customWidth="true" width="38.7109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="47.140625"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>123456</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>123456</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -916,96 +804,96 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1013,13 +901,13 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1027,41 +915,41 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1069,27 +957,27 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1097,44 +985,50 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21">
-      <c r="B21" t="s" s="0">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s" s="0">
-        <v>133</v>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="2"/>
@@ -1142,40 +1036,43 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25">
-      <c r="B25" t="s" s="0">
-        <v>134</v>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>83</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="3"/>
@@ -1190,28 +1087,34 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" t="s" s="0">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="s" s="0">
-        <v>131</v>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" t="s" s="0">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
         <v>73</v>
       </c>
     </row>

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -326,12 +326,28 @@
   </si>
   <si>
     <t>InfoEventNameForChat</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-05.02.2026_055608</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_05.02.2026_055608</t>
+  </si>
+  <si>
+    <t>BG_Resource_05.02.2026_055608</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_05.02.2026_055608</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_06.02.2026_055608</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -687,116 +703,116 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="69.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="46.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="5" max="5" customWidth="true" width="38.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="47.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>123456</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>123456</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -804,96 +820,96 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>21</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -901,13 +917,13 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -915,41 +931,41 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -957,27 +973,27 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -985,50 +1001,44 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>70</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>46</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
+    <row r="21">
+      <c r="B21" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>79</v>
       </c>
       <c r="C23" s="2"/>
@@ -1036,43 +1046,40 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>81</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
+    <row r="25">
+      <c r="B25" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D27" s="3"/>
@@ -1087,34 +1094,28 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" t="s">
-        <v>96</v>
+    <row r="29">
+      <c r="B29" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>73</v>
       </c>
     </row>

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -341,6 +341,21 @@
   </si>
   <si>
     <t>Bg_1 Day Information-Event by Fire fighter (two Station)_06.02.2026_055608</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-05.02.2026_120953</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_05.02.2026_120953</t>
+  </si>
+  <si>
+    <t>BG_Resource_05.02.2026_120953</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_05.02.2026_120953</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_06.02.2026_120953</t>
   </si>
 </sst>
 </file>
@@ -1026,12 +1041,12 @@
     </row>
     <row r="21">
       <c r="B21" t="s" s="0">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1058,7 +1073,7 @@
     </row>
     <row r="25">
       <c r="B25" t="s" s="0">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1103,12 +1118,12 @@
     </row>
     <row r="29">
       <c r="B29" t="s" s="0">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s" s="0">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7">

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -356,6 +356,39 @@
   </si>
   <si>
     <t>Bg_1 Day Information-Event by Fire fighter (two Station)_06.02.2026_120953</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-07.02.2026_083428</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_07.02.2026_083428</t>
+  </si>
+  <si>
+    <t>BG_Resource_07.02.2026_083428</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_07.02.2026_083428</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_08.02.2026_083428</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_07.02.2026_112154</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-09.02.2026_060507</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_09.02.2026_060507</t>
+  </si>
+  <si>
+    <t>BG_Resource_09.02.2026_060507</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_09.02.2026_060507</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_10.02.2026_060507</t>
   </si>
 </sst>
 </file>
@@ -1041,12 +1074,12 @@
     </row>
     <row r="21">
       <c r="B21" t="s" s="0">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="0">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1073,7 +1106,7 @@
     </row>
     <row r="25">
       <c r="B25" t="s" s="0">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1118,12 +1151,12 @@
     </row>
     <row r="29">
       <c r="B29" t="s" s="0">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s" s="0">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:7">

--- a/DataFiles/DetailsFile.xlsx
+++ b/DataFiles/DetailsFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="28425" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17925" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
     <t xml:space="preserve">Url </t>
   </si>
@@ -304,98 +304,37 @@
     <t>oldEscTemplateSt02ToSt01</t>
   </si>
   <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_05.02.2026_063816</t>
-  </si>
-  <si>
-    <t>BG-MA by attribute for extend-04.02.2026_122609</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_04.02.2026_122609</t>
-  </si>
-  <si>
-    <t>BG_Resource_04.02.2026_122609</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_04.02.2026_122609</t>
-  </si>
-  <si>
     <t>NewResource</t>
   </si>
   <si>
     <t>NewResourceEsc</t>
   </si>
   <si>
-    <t>InfoEventNameForChat</t>
-  </si>
-  <si>
-    <t>BG-MA by attribute for extend-05.02.2026_055608</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_05.02.2026_055608</t>
-  </si>
-  <si>
-    <t>BG_Resource_05.02.2026_055608</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_05.02.2026_055608</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_06.02.2026_055608</t>
-  </si>
-  <si>
-    <t>BG-MA by attribute for extend-05.02.2026_120953</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_05.02.2026_120953</t>
-  </si>
-  <si>
-    <t>BG_Resource_05.02.2026_120953</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_05.02.2026_120953</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_06.02.2026_120953</t>
-  </si>
-  <si>
-    <t>BG-MA by attribute for extend-07.02.2026_083428</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_07.02.2026_083428</t>
-  </si>
-  <si>
-    <t>BG_Resource_07.02.2026_083428</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_07.02.2026_083428</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_08.02.2026_083428</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_07.02.2026_112154</t>
-  </si>
-  <si>
     <t>BG-MA by attribute for extend-09.02.2026_060507</t>
   </si>
   <si>
-    <t>BG_AT by Atrribute_09.02.2026_060507</t>
-  </si>
-  <si>
-    <t>BG_Resource_09.02.2026_060507</t>
-  </si>
-  <si>
     <t>BG_Escaltion Resource_09.02.2026_060507</t>
   </si>
   <si>
     <t>Bg_1 Day Information-Event by Fire fighter (two Station)_10.02.2026_060507</t>
+  </si>
+  <si>
+    <t>BG_Resource_13.02.2026_091652</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_17.02.2026_062501</t>
+  </si>
+  <si>
+    <t>ManualAlarmNameForChatOldApi</t>
+  </si>
+  <si>
+    <t>BG A-v1 MS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -743,124 +682,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="69.5703125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="46.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="52.140625"/>
-    <col min="5" max="5" customWidth="true" width="38.7109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="47.140625"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>123456</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>123456</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -868,96 +807,96 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -965,13 +904,13 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -979,41 +918,41 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1021,27 +960,27 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1049,44 +988,50 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21">
-      <c r="B21" t="s" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s" s="0">
-        <v>121</v>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="2"/>
@@ -1094,40 +1039,43 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25">
-      <c r="B25" t="s" s="0">
-        <v>122</v>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>83</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="3"/>
@@ -1142,29 +1090,43 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" t="s" s="0">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="s" s="0">
-        <v>119</v>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>94</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
